--- a/biology/Zoologie/Falconina/Falconina.xlsx
+++ b/biology/Zoologie/Falconina/Falconina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Falconina est un genre d'araignées aranéomorphes de la famille des Corinnidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Falconina est un genre d'araignées aranéomorphes de la famille des Corinnidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud et au Panamá[1]. Falconina gracilis a été introduite aux États-Unis et à Cuba[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud et au Panamá. Falconina gracilis a été introduite aux États-Unis et à Cuba.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 17/09/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 17/09/2023) :
 Falconina adriki García &amp; Bonaldo, 2023
 Falconina albomaculosa (Schmidt, 1971)
 Falconina andresi García &amp; Bonaldo, 2023
@@ -582,9 +598,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Falconia[2] Schenkel, 1953, préoccupé par Falconia Distant, 1884, a été remplacé par Falconina par Brignoli en 1985[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Falconia Schenkel, 1953, préoccupé par Falconia Distant, 1884, a été remplacé par Falconina par Brignoli en 1985.
 </t>
         </is>
       </c>
@@ -613,7 +631,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Brignoli, 1985 : « On some generic homonymies in spiders (Araneae). » Bulletin of the British Arachnological Society, vol. 6, p. 380.
 Schenkel, 1953 : « Bericht über eingie Spinnentiere aus Venezuela. » Verhandlungen der naturforschenden Gesellschaft in Basel, vol. 64, p. 1-57.</t>
